--- a/Inputs/Orange_IPMI/benefits1.xlsx
+++ b/Inputs/Orange_IPMI/benefits1.xlsx
@@ -26,7 +26,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="C24" authorId="0">
+    <comment ref="C25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t xml:space="preserve">Scans &amp; Diagnostic Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiology</t>
   </si>
   <si>
     <t xml:space="preserve">Physiotherapy</t>
@@ -463,9 +466,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -635,6 +639,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -665,10 +673,6 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -757,13 +761,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.99"/>
@@ -996,59 +1000,60 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="22" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="C23" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="20" t="s">
+      <c r="B24" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="14" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,135 +1064,135 @@
         <v>49</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="23" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,38 +1203,38 @@
         <v>70</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,95 +1245,106 @@
         <v>75</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C45" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>80</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>52</v>
+      <c r="B50" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>85</v>
+      <c r="B51" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1354,7 +1370,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1385,7 +1401,7 @@
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1501,7 +1517,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,10 +1544,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,7 +1610,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>34</v>
@@ -1605,10 +1621,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,10 +1632,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,10 +1643,10 @@
         <v>16</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,7 +1654,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>18</v>
@@ -1649,10 +1665,10 @@
         <v>13</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,10 +1695,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,7 +1706,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,10 +1714,10 @@
         <v>16</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,10 +1725,10 @@
         <v>16</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,10 +1736,10 @@
         <v>13</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,10 +1747,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,10 +1758,10 @@
         <v>16</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,10 +1769,10 @@
         <v>13</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,10 +1780,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,10 +1791,10 @@
         <v>13</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,10 +1802,10 @@
         <v>13</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,10 +1821,10 @@
         <v>16</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,10 +1832,10 @@
         <v>16</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,10 +1843,10 @@
         <v>16</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,10 +1854,10 @@
         <v>6</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,10 +1865,10 @@
         <v>6</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,10 +1876,10 @@
         <v>6</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,10 +1887,10 @@
         <v>6</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,10 +1898,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,10 +1909,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,10 +1920,10 @@
         <v>6</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,10 +1931,10 @@
         <v>6</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/Orange_IPMI/benefits1.xlsx
+++ b/Inputs/Orange_IPMI/benefits1.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="94">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -147,8 +147,7 @@
     <t xml:space="preserve">Accommodation Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Private Room
-</t>
+    <t xml:space="preserve">Private Room</t>
   </si>
   <si>
     <t xml:space="preserve">In-patient (Hospitalization &amp; Surgery)</t>
@@ -347,6 +346,10 @@
   </si>
   <si>
     <t xml:space="preserve">Optical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room
+</t>
   </si>
   <si>
     <t xml:space="preserve">Covered for members enrolled under BASMAH initiative</t>
@@ -377,7 +380,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -460,6 +463,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -558,7 +567,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -620,6 +629,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -635,7 +648,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -663,15 +676,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -763,11 +776,11 @@
   </sheetPr>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.99"/>
@@ -870,25 +883,25 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -899,7 +912,7 @@
       <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -910,7 +923,7 @@
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -921,7 +934,7 @@
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -974,7 +987,7 @@
       <c r="B19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1000,17 +1013,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="19" t="s">
+    <row r="22" s="21" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -1019,7 +1032,7 @@
       <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1030,7 +1043,7 @@
       <c r="B24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1063,7 +1076,7 @@
       <c r="B27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1074,7 +1087,7 @@
       <c r="B28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1094,7 +1107,7 @@
       <c r="B30" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="19" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1122,10 +1135,10 @@
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1147,7 +1160,7 @@
       <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1158,7 +1171,7 @@
       <c r="B36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1180,7 +1193,7 @@
       <c r="B38" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1188,10 +1201,10 @@
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1266,7 +1279,7 @@
       <c r="B46" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="27" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1274,10 +1287,10 @@
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="29" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1285,7 +1298,7 @@
       <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="28" t="s">
         <v>81</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1296,7 +1309,7 @@
       <c r="A49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -1307,7 +1320,7 @@
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="28" t="s">
         <v>85</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -1318,7 +1331,7 @@
       <c r="A51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="28" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -1329,7 +1342,7 @@
       <c r="A52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="28" t="s">
         <v>86</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -1340,7 +1353,7 @@
       <c r="A53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -1370,7 +1383,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1401,7 +1414,7 @@
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1431,7 +1444,7 @@
       <c r="B6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1461,7 +1474,7 @@
       <c r="A9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1472,8 +1485,8 @@
       <c r="B10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>23</v>
+      <c r="C10" s="30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,7 +1530,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,7 +1540,7 @@
       <c r="B15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1544,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="29" t="s">
         <v>90</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,8 +1636,8 @@
       <c r="B24" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>91</v>
+      <c r="C24" s="30" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,8 +1647,8 @@
       <c r="B25" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>92</v>
+      <c r="C25" s="30" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,7 +1740,7 @@
       <c r="B34" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="30" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1738,7 +1751,7 @@
       <c r="B35" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>61</v>
       </c>
     </row>
